--- a/Sponge_Cymbastela_concentrica/Modelling/Scripts/07_gf_model/bin.2/bin.2_output_comparison_matrix.xlsx
+++ b/Sponge_Cymbastela_concentrica/Modelling/Scripts/07_gf_model/bin.2/bin.2_output_comparison_matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiny\Desktop\UNSW\Gapseq_sponge_MAGs\Sponge_Cymbastela_concentrica\Modelling\Scripts\07_gf_model\bin.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiny\Documents\GitHub\Gapseq_sponge_MAGs\Sponge_Cymbastela_concentrica\Modelling\Scripts\07_gf_model\bin.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1B4A0-8524-4314-AA12-A0633F9B4B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC52967F-A454-483F-8124-2E9C7804AE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5400" yWindow="4308" windowWidth="11064" windowHeight="5736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +254,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -328,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,37 +351,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,54 +703,54 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -738,220 +759,220 @@
       <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
@@ -966,7 +987,7 @@
       <c r="D28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
@@ -979,158 +1000,160 @@
       <c r="D29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="9"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="9"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="9"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="9"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="9"/>
+      <c r="E45" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A27"/>
     <mergeCell ref="A28:A45"/>
     <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B30:B45"/>
+    <mergeCell ref="C30:C45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
